--- a/files/generatedTemplates/GeneratedASNPOTEMP.xlsx.xlsx
+++ b/files/generatedTemplates/GeneratedASNPOTEMP.xlsx.xlsx
@@ -10,8 +10,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -375,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IQ5"/>
+  <dimension ref="A1:IS5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1134,6 +1136,12 @@
       <c r="IQ1" t="str">
         <v>Check Items Flag</v>
       </c>
+      <c r="IR1" t="str">
+        <v>Date Converted</v>
+      </c>
+      <c r="IS1" t="str">
+        <v>Conversion Type</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1892,7 +1900,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ZEU-CIC</v>
+        <v>ZEU-PVM</v>
       </c>
       <c r="B3" t="str">
         <v>PO</v>
@@ -1919,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="EZ3" t="str">
-        <v>ZEU-CIC</v>
+        <v>ZEU-PVM</v>
       </c>
       <c r="FA3">
         <v>1</v>
@@ -1959,11 +1967,17 @@
       </c>
       <c r="GV3" t="str">
         <v>0</v>
+      </c>
+      <c r="IR3" t="str">
+        <v>11/9/2021, 4:45:03 PM</v>
+      </c>
+      <c r="IS3" t="str">
+        <v>ASNPo</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ZEU-CIC</v>
+        <v>ZEU-PVM</v>
       </c>
       <c r="B4" t="str">
         <v>PO</v>
@@ -1990,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="EZ4" t="str">
-        <v>ZEU-CIC</v>
+        <v>ZEU-PVM</v>
       </c>
       <c r="FA4">
         <v>1</v>
@@ -2030,11 +2044,17 @@
       </c>
       <c r="GV4" t="str">
         <v>0</v>
+      </c>
+      <c r="IR4" t="str">
+        <v>11/9/2021, 4:45:03 PM</v>
+      </c>
+      <c r="IS4" t="str">
+        <v>ASNPo</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ZEU-CIC</v>
+        <v>ZEU-PVM</v>
       </c>
       <c r="B5" t="str">
         <v>PO</v>
@@ -2061,7 +2081,7 @@
         <v>16</v>
       </c>
       <c r="EZ5" t="str">
-        <v>ZEU-CIC</v>
+        <v>ZEU-PVM</v>
       </c>
       <c r="FA5">
         <v>2</v>
@@ -2101,11 +2121,17 @@
       </c>
       <c r="GV5" t="str">
         <v>0</v>
+      </c>
+      <c r="IR5" t="str">
+        <v>11/9/2021, 4:45:03 PM</v>
+      </c>
+      <c r="IS5" t="str">
+        <v>ASNPo</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:IQ5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:IS5"/>
   </ignoredErrors>
 </worksheet>
 </file>